--- a/inputs/TestDataSheet.xlsx
+++ b/inputs/TestDataSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium\Framework\LatestCucumber6WithPOM-master\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium\Framework\ReddyRepository\Cucumberframework\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB0E500-2344-42D5-8FD2-8C5B287106D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA8A096-0548-4205-B46F-54012FE7CF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Login with correct credentials</t>
   </si>
@@ -55,10 +55,25 @@
     <t>passWord</t>
   </si>
   <si>
-    <t>LoginUser</t>
-  </si>
-  <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>LoginUser1</t>
+  </si>
+  <si>
+    <t>LoginUser2</t>
+  </si>
+  <si>
+    <t>LoginUser3</t>
+  </si>
+  <si>
+    <t>admin@yourstore.com</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Successful Login with Valid Credentials1</t>
   </si>
 </sst>
 </file>
@@ -387,15 +402,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -416,10 +431,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -427,10 +442,21 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -441,15 +467,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39E71606-FD23-4D08-AC2C-5128DA52687D}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -466,18 +492,42 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{91586B76-DD9B-40C4-8C78-EF8F7230B4A8}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{1DC933C9-5D9A-4F4C-9F57-61BF2EB5D52C}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{681CBFBB-7CC9-4657-8CF8-2864D9DE0445}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/inputs/TestDataSheet.xlsx
+++ b/inputs/TestDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Selenium\Framework\ReddyRepository\Cucumberframework\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA8A096-0548-4205-B46F-54012FE7CF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8A8158-0F18-4EC8-947D-842482C95B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Login with correct credentials</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Successful Login with Valid Credentials1</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -456,7 +459,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
